--- a/pruebapantalla etiqutas embarque.xlsx
+++ b/pruebapantalla etiqutas embarque.xlsx
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -74,7 +74,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +379,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,12 +437,12 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>F2+1</f>
-        <v>10</v>
+        <f>F2</f>
+        <v>9</v>
       </c>
       <c r="I2">
         <f>H2+$M$2</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1">
         <f>O2/O5</f>
@@ -461,7 +461,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D38" si="0">C3+$M$2</f>
+        <f t="shared" ref="D3:D37" si="0">C3+$M$2</f>
         <v>39</v>
       </c>
       <c r="G3">
@@ -469,11 +469,11 @@
       </c>
       <c r="H3">
         <f>I2+$M$2</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I25" si="1">H3+$M$2</f>
-        <v>49</v>
+        <f t="shared" ref="I3:I5" si="1">H3+$M$2</f>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -493,11 +493,11 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H5" si="3">I3+$M$2</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
         <v>5</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -538,12 +538,12 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>A6+1</f>
-        <v>2</v>
+        <f>A6</f>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H21" si="4">F6+1</f>
-        <v>11</v>
+        <f>F6</f>
+        <v>10</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>H6+$M$2</f>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -565,23 +565,23 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C37" si="5">D6+$M$2</f>
-        <v>28</v>
+        <f t="shared" ref="C7:C37" si="4">D6+$M$2</f>
+        <v>27</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H21" si="6">I6+$M$2</f>
-        <v>37</v>
+        <f>I6+$M$2</f>
+        <v>36</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" ref="I7:I9" si="5">H7+$M$2</f>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -589,23 +589,23 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
-        <v>63</v>
+        <f t="shared" ref="H8:H9" si="6">I7+$M$2</f>
+        <v>62</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -613,23 +613,23 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -640,12 +640,12 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C37" si="7">A10+1</f>
-        <v>3</v>
+        <f t="shared" ref="C10:C37" si="7">A10</f>
+        <v>2</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -654,12 +654,12 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H21" si="8">F10+1</f>
-        <v>12</v>
+        <f>F10</f>
+        <v>11</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>H10+$M$2</f>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -667,23 +667,23 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
-        <v>29</v>
+        <f t="shared" ref="C11:C37" si="8">D10+$M$2</f>
+        <v>28</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" ref="D11:D37" si="9">C11+$M$2</f>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H21" si="9">I10+$M$2</f>
-        <v>38</v>
+        <f>I10+$M$2</f>
+        <v>37</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f t="shared" ref="I11:I13" si="10">H11+$M$2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -691,23 +691,23 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
-        <v>55</v>
+        <f t="shared" si="8"/>
+        <v>54</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f t="shared" si="9"/>
+        <v>67</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" ref="H12:H13" si="11">I11+$M$2</f>
+        <v>63</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f t="shared" si="10"/>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -715,23 +715,23 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
-        <v>81</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <f t="shared" si="9"/>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f t="shared" si="11"/>
+        <v>89</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <f t="shared" si="10"/>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -742,12 +742,12 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C37" si="10">A14+1</f>
-        <v>4</v>
+        <f t="shared" ref="C14:C37" si="12">A14</f>
+        <v>3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -756,12 +756,12 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H21" si="11">F14+1</f>
-        <v>13</v>
+        <f>F14</f>
+        <v>12</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>H14+$M$2</f>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -769,23 +769,23 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" ref="C15:C37" si="13">D14+$M$2</f>
+        <v>29</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="9"/>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H21" si="12">I14+$M$2</f>
-        <v>39</v>
+        <f>I14+$M$2</f>
+        <v>38</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" ref="I15:I17" si="14">H15+$M$2</f>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -793,23 +793,23 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
-        <v>56</v>
+        <f t="shared" si="13"/>
+        <v>55</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f t="shared" si="9"/>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
-        <v>65</v>
+        <f t="shared" ref="H16:H17" si="15">I15+$M$2</f>
+        <v>64</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f t="shared" si="14"/>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -817,23 +817,23 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
-        <v>82</v>
+        <f t="shared" si="13"/>
+        <v>81</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f t="shared" si="9"/>
+        <v>94</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
-        <v>91</v>
+        <f t="shared" si="15"/>
+        <v>90</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <f t="shared" si="14"/>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,12 +844,12 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C37" si="13">A18+1</f>
-        <v>5</v>
+        <f t="shared" ref="C18:C37" si="16">A18</f>
+        <v>4</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>13</v>
@@ -858,12 +858,12 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H21" si="14">F18+1</f>
-        <v>14</v>
+        <f>F18</f>
+        <v>13</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f>H18+$M$2</f>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -871,23 +871,23 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
-        <v>31</v>
+        <f t="shared" ref="C19:C37" si="17">D18+$M$2</f>
+        <v>30</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f t="shared" si="9"/>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H21" si="15">I18+$M$2</f>
-        <v>40</v>
+        <f>I18+$M$2</f>
+        <v>39</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f t="shared" ref="I19:I21" si="18">H19+$M$2</f>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -895,23 +895,23 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
-        <v>57</v>
+        <f t="shared" si="17"/>
+        <v>56</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f t="shared" si="9"/>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f t="shared" ref="H20:H21" si="19">I19+$M$2</f>
+        <v>65</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" si="18"/>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -919,23 +919,23 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
-        <v>83</v>
+        <f t="shared" si="17"/>
+        <v>82</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f t="shared" si="9"/>
+        <v>95</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f t="shared" si="19"/>
+        <v>91</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,12 +946,12 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C37" si="16">A22+1</f>
-        <v>6</v>
+        <f t="shared" ref="C22:C37" si="20">A22</f>
+        <v>5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -959,12 +959,12 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" ref="C23:C37" si="21">D22+$M$2</f>
+        <v>31</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="9"/>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>14</v>
@@ -984,12 +984,12 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
-        <v>58</v>
+        <f t="shared" si="21"/>
+        <v>57</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1006,18 +1006,15 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
-        <v>84</v>
+        <f t="shared" si="21"/>
+        <v>83</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f t="shared" si="9"/>
+        <v>96</v>
       </c>
       <c r="G25">
         <v>2</v>
-      </c>
-      <c r="H25">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,12 +1025,12 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C37" si="17">A26+1</f>
-        <v>7</v>
+        <f t="shared" ref="C26:C37" si="22">A26</f>
+        <v>6</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1044,12 +1041,12 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
-        <v>33</v>
+        <f t="shared" ref="C27:C37" si="23">D26+$M$2</f>
+        <v>32</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="9"/>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1057,12 +1054,12 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
-        <v>59</v>
+        <f t="shared" si="23"/>
+        <v>58</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f t="shared" si="9"/>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1070,12 +1067,12 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
-        <v>85</v>
+        <f t="shared" si="23"/>
+        <v>84</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <f t="shared" si="9"/>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,12 +1083,12 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C37" si="18">A30+1</f>
-        <v>8</v>
+        <f t="shared" ref="C30:C37" si="24">A30</f>
+        <v>7</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1099,12 +1096,12 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
-        <v>34</v>
+        <f t="shared" ref="C31:C37" si="25">D30+$M$2</f>
+        <v>33</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f t="shared" si="9"/>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,12 +1109,12 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f t="shared" si="25"/>
+        <v>59</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,12 +1122,12 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f t="shared" si="25"/>
+        <v>85</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <f t="shared" si="9"/>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,12 +1138,12 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C37" si="19">A34+1</f>
-        <v>9</v>
+        <f t="shared" ref="C34:C37" si="26">A34</f>
+        <v>8</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1154,12 +1151,12 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <f t="shared" ref="C35:C37" si="27">D34+$M$2</f>
+        <v>34</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f t="shared" si="9"/>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,12 +1164,12 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
-        <v>61</v>
+        <f t="shared" si="27"/>
+        <v>60</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f t="shared" si="9"/>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1180,12 +1177,12 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <f t="shared" si="27"/>
+        <v>86</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
